--- a/artfynd/Rislidtjärnarna artfynd.xlsx
+++ b/artfynd/Rislidtjärnarna artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY57"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56825813</v>
+        <v>56825871</v>
       </c>
       <c r="B2" t="n">
-        <v>82792</v>
+        <v>75067</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>690203</v>
+        <v>690570</v>
       </c>
       <c r="R2" t="n">
-        <v>7098001</v>
+        <v>7097685</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>björkstubbe</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56825845</v>
+        <v>56825813</v>
       </c>
       <c r="B3" t="n">
         <v>82792</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>689497</v>
+        <v>690203</v>
       </c>
       <c r="R3" t="n">
-        <v>7098095</v>
+        <v>7098001</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56825871</v>
+        <v>56825845</v>
       </c>
       <c r="B4" t="n">
-        <v>75067</v>
+        <v>82792</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>690570</v>
+        <v>689497</v>
       </c>
       <c r="R4" t="n">
-        <v>7097685</v>
+        <v>7098095</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>björkstubbe</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56825830</v>
+        <v>56825810</v>
       </c>
       <c r="B6" t="n">
-        <v>91241</v>
+        <v>82792</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,21 +1114,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>689974</v>
+        <v>690220</v>
       </c>
       <c r="R6" t="n">
-        <v>7098206</v>
+        <v>7097986</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1210,32 +1210,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56825817</v>
+        <v>56825830</v>
       </c>
       <c r="B7" t="n">
-        <v>91210</v>
+        <v>91241</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1108</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690185</v>
+        <v>689974</v>
       </c>
       <c r="R7" t="n">
-        <v>7098034</v>
+        <v>7098206</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56825819</v>
+        <v>56825844</v>
       </c>
       <c r="B8" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1328,21 +1328,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1352,10 +1352,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690152</v>
+        <v>689498</v>
       </c>
       <c r="R8" t="n">
-        <v>7098021</v>
+        <v>7098098</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1424,32 +1424,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56825844</v>
+        <v>56825817</v>
       </c>
       <c r="B9" t="n">
-        <v>82792</v>
+        <v>91210</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>689498</v>
+        <v>690185</v>
       </c>
       <c r="R9" t="n">
-        <v>7098098</v>
+        <v>7098034</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56825810</v>
+        <v>56825819</v>
       </c>
       <c r="B10" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1542,21 +1542,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690220</v>
+        <v>690152</v>
       </c>
       <c r="R10" t="n">
-        <v>7097986</v>
+        <v>7098021</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1638,45 +1638,49 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56825876</v>
+        <v>126908916</v>
       </c>
       <c r="B11" t="n">
-        <v>95594</v>
+        <v>98361</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2809</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690596</v>
+        <v>689502</v>
       </c>
       <c r="R11" t="n">
-        <v>7097698</v>
+        <v>7098047</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1703,12 +1707,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1719,31 +1733,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56825873</v>
+        <v>56825876</v>
       </c>
       <c r="B12" t="n">
-        <v>80112</v>
+        <v>95594</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1751,21 +1760,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>2809</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1775,10 +1784,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690574</v>
+        <v>690596</v>
       </c>
       <c r="R12" t="n">
-        <v>7097671</v>
+        <v>7097698</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1825,11 +1834,6 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1847,32 +1851,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56825822</v>
+        <v>56825804</v>
       </c>
       <c r="B13" t="n">
-        <v>80119</v>
+        <v>91263</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1882,10 +1886,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690103</v>
+        <v>690304</v>
       </c>
       <c r="R13" t="n">
-        <v>7098031</v>
+        <v>7097947</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1936,7 +1940,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>högstubbe</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -1954,10 +1958,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56825869</v>
+        <v>56825822</v>
       </c>
       <c r="B14" t="n">
-        <v>80112</v>
+        <v>80119</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1965,21 +1969,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1989,10 +1993,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690537</v>
+        <v>690103</v>
       </c>
       <c r="R14" t="n">
-        <v>7097733</v>
+        <v>7098031</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2061,32 +2065,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56825804</v>
+        <v>56825873</v>
       </c>
       <c r="B15" t="n">
-        <v>91263</v>
+        <v>80112</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2096,10 +2100,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690304</v>
+        <v>690574</v>
       </c>
       <c r="R15" t="n">
-        <v>7097947</v>
+        <v>7097671</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2150,7 +2154,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>högstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2168,32 +2172,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>56825847</v>
+        <v>56825869</v>
       </c>
       <c r="B16" t="n">
-        <v>82792</v>
+        <v>80112</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2203,10 +2207,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>689415</v>
+        <v>690537</v>
       </c>
       <c r="R16" t="n">
-        <v>7098168</v>
+        <v>7097733</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2257,7 +2261,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2275,10 +2279,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>56825805</v>
+        <v>126911107</v>
       </c>
       <c r="B17" t="n">
-        <v>82792</v>
+        <v>91263</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2286,34 +2290,41 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690282</v>
+        <v>688516</v>
       </c>
       <c r="R17" t="n">
-        <v>7097946</v>
+        <v>7098550</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2340,12 +2351,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2354,38 +2365,33 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>56825812</v>
+        <v>56825872</v>
       </c>
       <c r="B18" t="n">
-        <v>82792</v>
+        <v>80083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2393,21 +2399,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2417,10 +2423,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690202</v>
+        <v>690574</v>
       </c>
       <c r="R18" t="n">
-        <v>7098003</v>
+        <v>7097671</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2471,7 +2477,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2489,10 +2495,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56825827</v>
+        <v>56825812</v>
       </c>
       <c r="B19" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2500,21 +2506,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2524,10 +2530,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690069</v>
+        <v>690202</v>
       </c>
       <c r="R19" t="n">
-        <v>7098107</v>
+        <v>7098003</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2578,7 +2584,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2596,10 +2602,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56825872</v>
+        <v>56825847</v>
       </c>
       <c r="B20" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2607,21 +2613,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2631,10 +2637,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690574</v>
+        <v>689415</v>
       </c>
       <c r="R20" t="n">
-        <v>7097671</v>
+        <v>7098168</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2685,7 +2691,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2703,10 +2709,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56825832</v>
+        <v>56825805</v>
       </c>
       <c r="B21" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2714,21 +2720,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2738,10 +2744,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>689929</v>
+        <v>690282</v>
       </c>
       <c r="R21" t="n">
-        <v>7098189</v>
+        <v>7097946</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2792,7 +2798,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -2810,27 +2816,27 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56825841</v>
+        <v>56825827</v>
       </c>
       <c r="B22" t="n">
-        <v>80118</v>
+        <v>78980</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2845,10 +2851,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>689470</v>
+        <v>690069</v>
       </c>
       <c r="R22" t="n">
-        <v>7098090</v>
+        <v>7098107</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,7 +2905,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -2917,10 +2923,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56825878</v>
+        <v>56825832</v>
       </c>
       <c r="B23" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2928,21 +2934,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2952,10 +2958,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690641</v>
+        <v>689929</v>
       </c>
       <c r="R23" t="n">
-        <v>7097580</v>
+        <v>7098189</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3006,7 +3012,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3024,10 +3030,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56825802</v>
+        <v>56825841</v>
       </c>
       <c r="B24" t="n">
-        <v>91210</v>
+        <v>80118</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3035,21 +3041,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>6463</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3059,10 +3065,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690359</v>
+        <v>689470</v>
       </c>
       <c r="R24" t="n">
-        <v>7097938</v>
+        <v>7098090</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3113,7 +3119,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3131,10 +3137,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56825828</v>
+        <v>126905812</v>
       </c>
       <c r="B25" t="n">
-        <v>82792</v>
+        <v>91245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3142,34 +3148,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Kåtabäcken, Kåtabäcken, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690073</v>
+        <v>688622</v>
       </c>
       <c r="R25" t="n">
-        <v>7098117</v>
+        <v>7098523</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3196,12 +3202,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3212,36 +3228,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56825829</v>
+        <v>126911174</v>
       </c>
       <c r="B26" t="n">
-        <v>78980</v>
+        <v>56840</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3249,34 +3255,42 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spillning</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690002</v>
+        <v>688453</v>
       </c>
       <c r="R26" t="n">
-        <v>7098171</v>
+        <v>7098369</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3303,12 +3317,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3319,58 +3333,52 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56825818</v>
+        <v>56825802</v>
       </c>
       <c r="B27" t="n">
-        <v>91263</v>
+        <v>91210</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3380,10 +3388,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690172</v>
+        <v>690359</v>
       </c>
       <c r="R27" t="n">
-        <v>7098024</v>
+        <v>7097938</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3452,10 +3460,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56825849</v>
+        <v>56825878</v>
       </c>
       <c r="B28" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3463,21 +3471,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3487,10 +3495,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>689400</v>
+        <v>690641</v>
       </c>
       <c r="R28" t="n">
-        <v>7098136</v>
+        <v>7097580</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3541,7 +3549,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3559,10 +3567,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56825842</v>
+        <v>126904628</v>
       </c>
       <c r="B29" t="n">
-        <v>82792</v>
+        <v>79598</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3570,34 +3578,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Kåtabäcken, Kåtabäcken, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>689480</v>
+        <v>688318</v>
       </c>
       <c r="R29" t="n">
-        <v>7098098</v>
+        <v>7098345</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3624,12 +3632,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3640,36 +3658,26 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56825820</v>
+        <v>56825829</v>
       </c>
       <c r="B30" t="n">
-        <v>80955</v>
+        <v>78980</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3677,21 +3685,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3701,10 +3709,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>690121</v>
+        <v>690002</v>
       </c>
       <c r="R30" t="n">
-        <v>7098032</v>
+        <v>7098171</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3755,7 +3763,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>högstubbe gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3773,7 +3781,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56825833</v>
+        <v>56825828</v>
       </c>
       <c r="B31" t="n">
         <v>82792</v>
@@ -3808,10 +3816,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>689911</v>
+        <v>690073</v>
       </c>
       <c r="R31" t="n">
-        <v>7098152</v>
+        <v>7098117</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3880,45 +3888,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56825875</v>
+        <v>126911337</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>5176</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>690592</v>
+        <v>688887</v>
       </c>
       <c r="R32" t="n">
-        <v>7097685</v>
+        <v>7098710</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3945,12 +3962,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3959,38 +3976,33 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY32" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56825821</v>
+        <v>56825849</v>
       </c>
       <c r="B33" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3998,21 +4010,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4022,10 +4034,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>690103</v>
+        <v>689400</v>
       </c>
       <c r="R33" t="n">
-        <v>7098031</v>
+        <v>7098136</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4076,7 +4088,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4094,10 +4106,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56825848</v>
+        <v>56825818</v>
       </c>
       <c r="B34" t="n">
-        <v>82792</v>
+        <v>91263</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4105,21 +4117,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4129,10 +4141,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>689391</v>
+        <v>690172</v>
       </c>
       <c r="R34" t="n">
-        <v>7098147</v>
+        <v>7098024</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4183,7 +4195,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4201,10 +4213,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56825809</v>
+        <v>126907339</v>
       </c>
       <c r="B35" t="n">
-        <v>91245</v>
+        <v>82792</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4212,34 +4224,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690275</v>
+        <v>688902</v>
       </c>
       <c r="R35" t="n">
-        <v>7097957</v>
+        <v>7098449</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4266,12 +4278,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4282,36 +4304,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56825834</v>
+        <v>126911036</v>
       </c>
       <c r="B36" t="n">
-        <v>82792</v>
+        <v>57657</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4319,34 +4331,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>689889</v>
+        <v>688516</v>
       </c>
       <c r="R36" t="n">
-        <v>7098165</v>
+        <v>7098550</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4373,12 +4393,17 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>I grantickerötad högstubbe ca 5 m upp.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4389,36 +4414,30 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56825826</v>
+        <v>56825820</v>
       </c>
       <c r="B37" t="n">
-        <v>82792</v>
+        <v>80955</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4426,21 +4445,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1312</v>
+        <v>1049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4450,10 +4469,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690072</v>
+        <v>690121</v>
       </c>
       <c r="R37" t="n">
-        <v>7098095</v>
+        <v>7098032</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4504,7 +4523,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>högstubbe gran</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4522,7 +4541,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56825870</v>
+        <v>56825821</v>
       </c>
       <c r="B38" t="n">
         <v>80083</v>
@@ -4557,10 +4576,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690562</v>
+        <v>690103</v>
       </c>
       <c r="R38" t="n">
-        <v>7097708</v>
+        <v>7098031</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4629,10 +4648,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56825843</v>
+        <v>56825833</v>
       </c>
       <c r="B39" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4640,21 +4659,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4664,10 +4683,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>689480</v>
+        <v>689911</v>
       </c>
       <c r="R39" t="n">
-        <v>7098098</v>
+        <v>7098152</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4736,10 +4755,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>56825877</v>
+        <v>56825842</v>
       </c>
       <c r="B40" t="n">
-        <v>91263</v>
+        <v>82792</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4747,21 +4766,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4771,10 +4790,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690593</v>
+        <v>689480</v>
       </c>
       <c r="R40" t="n">
-        <v>7097720</v>
+        <v>7098098</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4825,7 +4844,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -4843,10 +4862,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>56825846</v>
+        <v>56825875</v>
       </c>
       <c r="B41" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4854,21 +4873,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4878,10 +4897,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>689498</v>
+        <v>690592</v>
       </c>
       <c r="R41" t="n">
-        <v>7098114</v>
+        <v>7097685</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4932,7 +4951,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -4950,10 +4969,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>56825840</v>
+        <v>126911123</v>
       </c>
       <c r="B42" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4961,34 +4980,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>689470</v>
+        <v>688454</v>
       </c>
       <c r="R42" t="n">
-        <v>7098090</v>
+        <v>7098484</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5015,12 +5037,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5029,73 +5051,71 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY42" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56825874</v>
+        <v>126911148</v>
       </c>
       <c r="B43" t="n">
-        <v>80049</v>
+        <v>82792</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>229748</v>
+        <v>1312</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690574</v>
+        <v>688419</v>
       </c>
       <c r="R43" t="n">
-        <v>7097671</v>
+        <v>7098529</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5122,12 +5142,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5136,38 +5156,33 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56825811</v>
+        <v>126907670</v>
       </c>
       <c r="B44" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5175,34 +5190,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690200</v>
+        <v>688977</v>
       </c>
       <c r="R44" t="n">
-        <v>7097985</v>
+        <v>7098450</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5229,12 +5249,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5245,58 +5275,48 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56825867</v>
+        <v>56825809</v>
       </c>
       <c r="B45" t="n">
-        <v>98361</v>
+        <v>91245</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5306,10 +5326,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690415</v>
+        <v>690275</v>
       </c>
       <c r="R45" t="n">
-        <v>7097829</v>
+        <v>7097957</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5356,6 +5376,11 @@
       <c r="AI45" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5373,10 +5398,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56825831</v>
+        <v>56825848</v>
       </c>
       <c r="B46" t="n">
-        <v>79012</v>
+        <v>82792</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5384,21 +5409,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>185</v>
+        <v>1312</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5408,10 +5433,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>689929</v>
+        <v>689391</v>
       </c>
       <c r="R46" t="n">
-        <v>7098189</v>
+        <v>7098147</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5462,7 +5487,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5480,10 +5505,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56825838</v>
+        <v>56825834</v>
       </c>
       <c r="B47" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5491,21 +5516,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5515,10 +5540,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>689750</v>
+        <v>689889</v>
       </c>
       <c r="R47" t="n">
-        <v>7098282</v>
+        <v>7098165</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5569,7 +5594,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5587,45 +5612,52 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>56825808</v>
+        <v>126911208</v>
       </c>
       <c r="B48" t="n">
-        <v>91210</v>
+        <v>91541</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>690275</v>
+        <v>688688</v>
       </c>
       <c r="R48" t="n">
-        <v>7097957</v>
+        <v>7098511</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5652,12 +5684,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5666,38 +5698,33 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56825825</v>
+        <v>56825870</v>
       </c>
       <c r="B49" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5705,21 +5732,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5729,10 +5756,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>690055</v>
+        <v>690562</v>
       </c>
       <c r="R49" t="n">
-        <v>7098071</v>
+        <v>7097708</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5783,7 +5810,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -5801,10 +5828,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56825835</v>
+        <v>56825826</v>
       </c>
       <c r="B50" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5812,21 +5839,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5836,10 +5863,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>689807</v>
+        <v>690072</v>
       </c>
       <c r="R50" t="n">
-        <v>7098230</v>
+        <v>7098095</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5890,7 +5917,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -5908,45 +5935,57 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56825836</v>
+        <v>126911379</v>
       </c>
       <c r="B51" t="n">
-        <v>78386</v>
+        <v>56849</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6437</v>
+        <v>100138</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>rastande</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Rislidtjärnarna, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>689763</v>
+        <v>689283</v>
       </c>
       <c r="R51" t="n">
-        <v>7098277</v>
+        <v>7098261</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5973,12 +6012,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5989,36 +6038,30 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>silverstubbe tall</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Emil Lindgren</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr"/>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56825868</v>
+        <v>126903458</v>
       </c>
       <c r="B52" t="n">
-        <v>80083</v>
+        <v>75075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6026,34 +6069,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Kåtabäcken, Kåtabäcken, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>690537</v>
+        <v>688409</v>
       </c>
       <c r="R52" t="n">
-        <v>7097733</v>
+        <v>7098537</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6080,12 +6123,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6096,71 +6149,61 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56825815</v>
+        <v>126909036</v>
       </c>
       <c r="B53" t="n">
-        <v>91245</v>
+        <v>98278</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>219790</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Rislidtjärnarna, Ång</t>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>690185</v>
+        <v>689499</v>
       </c>
       <c r="R53" t="n">
-        <v>7098034</v>
+        <v>7098043</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6187,12 +6230,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6203,36 +6256,26 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Eleonor Johansson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56825814</v>
+        <v>56825843</v>
       </c>
       <c r="B54" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6240,21 +6283,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6264,10 +6307,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>690195</v>
+        <v>689480</v>
       </c>
       <c r="R54" t="n">
-        <v>7098012</v>
+        <v>7098098</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6318,7 +6361,7 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6336,10 +6379,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56825816</v>
+        <v>56825877</v>
       </c>
       <c r="B55" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6347,21 +6390,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6371,10 +6414,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>690185</v>
+        <v>690593</v>
       </c>
       <c r="R55" t="n">
-        <v>7098034</v>
+        <v>7097720</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6443,32 +6486,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56825824</v>
+        <v>56825846</v>
       </c>
       <c r="B56" t="n">
-        <v>79987</v>
+        <v>91245</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6478,10 +6521,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>690115</v>
+        <v>689498</v>
       </c>
       <c r="R56" t="n">
-        <v>7098048</v>
+        <v>7098114</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6532,7 +6575,7 @@
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -6550,10 +6593,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56825803</v>
+        <v>56825840</v>
       </c>
       <c r="B57" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6561,21 +6604,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6585,10 +6628,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>690345</v>
+        <v>689470</v>
       </c>
       <c r="R57" t="n">
-        <v>7097944</v>
+        <v>7098090</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6639,7 +6682,7 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -6654,6 +6697,2577 @@
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>126906092</v>
+      </c>
+      <c r="B58" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Kåtabäcken, Kåtabäcken, Ång</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>688681</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7098496</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>12:07</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>12:07</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>126907558</v>
+      </c>
+      <c r="B59" t="n">
+        <v>91210</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>688962</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7098446</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>126907077</v>
+      </c>
+      <c r="B60" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>688803</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7098478</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56825874</v>
+      </c>
+      <c r="B61" t="n">
+        <v>80049</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>229748</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Gytterlav</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Protopannaria pezizoides</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>690574</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7097671</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56825811</v>
+      </c>
+      <c r="B62" t="n">
+        <v>82792</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>690200</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7097985</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>gammal gran</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>126909285</v>
+      </c>
+      <c r="B63" t="n">
+        <v>79598</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>689571</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7098027</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>126911233</v>
+      </c>
+      <c r="B64" t="n">
+        <v>82792</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>688705</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7098534</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56825867</v>
+      </c>
+      <c r="B65" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>690415</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7097829</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>126907110</v>
+      </c>
+      <c r="B66" t="n">
+        <v>57654</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>688809</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7098470</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56825831</v>
+      </c>
+      <c r="B67" t="n">
+        <v>79012</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>185</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>689929</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7098189</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56825838</v>
+      </c>
+      <c r="B68" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>689750</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7098282</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56825815</v>
+      </c>
+      <c r="B69" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>690185</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7098034</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56825868</v>
+      </c>
+      <c r="B70" t="n">
+        <v>80083</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>690537</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7097733</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56825836</v>
+      </c>
+      <c r="B71" t="n">
+        <v>78386</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>6437</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Calicium denigratum</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>689763</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7098277</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>silverstubbe tall</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56825835</v>
+      </c>
+      <c r="B72" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>689807</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7098230</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56825808</v>
+      </c>
+      <c r="B73" t="n">
+        <v>91210</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>690275</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7097957</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56825825</v>
+      </c>
+      <c r="B74" t="n">
+        <v>91263</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>690055</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7098071</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>torrgran</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>126911318</v>
+      </c>
+      <c r="B75" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>688836</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7098618</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>126907346</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75075</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Rislidmyran, Rislidmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>688894</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7098446</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56825824</v>
+      </c>
+      <c r="B77" t="n">
+        <v>79987</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>690115</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7098048</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56825803</v>
+      </c>
+      <c r="B78" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>690345</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7097944</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56825814</v>
+      </c>
+      <c r="B79" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>690195</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7098012</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56825816</v>
+      </c>
+      <c r="B80" t="n">
+        <v>91541</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>658</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>690185</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7098034</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>126911416</v>
+      </c>
+      <c r="B81" t="n">
+        <v>91263</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna, Ång</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>689278</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7098205</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Emil Lindgren</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
